--- a/excel/Scatter Chart.xlsx
+++ b/excel/Scatter Chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgoyal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgoyal\Desktop\02-DataVis-5Ways\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB74F892-D83B-4EE2-BFE3-477524057203}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EE6825-46BA-4529-B9A8-D0C04934F58B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{07D7B353-BB3A-43B4-B422-DE12B99FF3BC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{07D7B353-BB3A-43B4-B422-DE12B99FF3BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -711,13 +711,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -782,10 +782,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.7056920526166807E-2"/>
-          <c:y val="1.5661657830619777E-2"/>
-          <c:w val="0.93325895570955542"/>
-          <c:h val="0.90248569228247666"/>
+          <c:x val="0.10323675130496328"/>
+          <c:y val="9.0041864601635546E-2"/>
+          <c:w val="0.79842755610604854"/>
+          <c:h val="0.80055725472332495"/>
         </c:manualLayout>
       </c:layout>
       <c:bubbleChart>
@@ -2786,16 +2786,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3169,7 +3169,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
@@ -6631,1137 +6631,1137 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="15" width="8.88671875" style="6"/>
+    <col min="1" max="15" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="2" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>2234</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>26</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <f>A3/1000</f>
         <v>2.234</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>3449</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>17</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <f t="shared" ref="F3:F53" si="0">D3/1000</f>
         <v>3.4489999999999998</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>2489</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="2">
         <v>24</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="2">
         <f t="shared" ref="I3:I15" si="1">G3/1000</f>
         <v>2.4889999999999999</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="2">
         <v>3820</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="2">
         <v>16.5</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="3">
         <f t="shared" ref="L3:L5" si="2">J3/1000</f>
         <v>3.82</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3" s="2">
         <v>2372</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="2">
         <v>24</v>
       </c>
-      <c r="O3" s="4">
+      <c r="O3" s="2">
         <f t="shared" ref="O3:O28" si="3">M3/1000</f>
         <v>2.3719999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2600</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>21.5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <f>A4/1000</f>
         <v>2.6</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>4341</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>15</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>4.3410000000000002</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>1795</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <v>33</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="2">
         <f t="shared" si="1"/>
         <v>1.7949999999999999</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="2">
         <v>3530</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="2">
         <v>25.4</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="3">
         <f t="shared" si="2"/>
         <v>3.53</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4" s="2">
         <v>2228</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="2">
         <v>25</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="2">
         <f t="shared" si="3"/>
         <v>2.2280000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>2587</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>21</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>2.5870000000000002</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>1795</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>33</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <f t="shared" si="1"/>
         <v>1.7949999999999999</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>3250</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="2">
         <v>30</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="3">
         <f t="shared" si="2"/>
         <v>3.25</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="2">
         <v>1773</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="2">
         <v>31</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="2">
         <f t="shared" si="3"/>
         <v>1.7729999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>4615</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>10</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>4.6150000000000002</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>2045</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>31.5</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <f t="shared" si="1"/>
         <v>2.0449999999999999</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="2">
         <v>2278</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="2">
         <v>24</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="2">
         <f t="shared" si="3"/>
         <v>2.278</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>2046</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>25</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>2.0459999999999998</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>1800</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <v>36.1</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <f t="shared" si="1"/>
         <v>1.8</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="2">
         <v>2506</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="2">
         <v>23</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="2">
         <f t="shared" si="3"/>
         <v>2.5059999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>3302</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>19</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>3.302</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>2135</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="2">
         <v>29.5</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="2">
         <f t="shared" si="1"/>
         <v>2.1349999999999998</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="2">
         <v>2100</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="2">
         <v>27</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="2">
         <f t="shared" si="3"/>
         <v>2.1</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>4154</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>14</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>4.1539999999999999</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <v>1850</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="2">
         <v>44.6</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="2">
         <f t="shared" si="1"/>
         <v>1.85</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="2">
         <v>2279</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="2">
         <v>20</v>
       </c>
-      <c r="O9" s="4">
+      <c r="O9" s="2">
         <f t="shared" si="3"/>
         <v>2.2789999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>4746</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>13</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <f t="shared" si="0"/>
         <v>4.7460000000000004</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="2">
         <v>2290</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="2">
         <v>32.4</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="2">
         <f t="shared" si="1"/>
         <v>2.29</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="2">
         <v>2807</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="2">
         <v>20</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="2">
         <f t="shared" si="3"/>
         <v>2.8069999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>3139</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>18</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>3.1389999999999998</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>1760</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="2">
         <v>35.1</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="2">
         <f t="shared" si="1"/>
         <v>1.76</v>
       </c>
-      <c r="M11" s="4">
+      <c r="M11" s="2">
         <v>1836</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="2">
         <v>32</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O11" s="2">
         <f t="shared" si="3"/>
         <v>1.8360000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>2226</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>21</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>2.226</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>2210</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="2">
         <v>33.700000000000003</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="2">
         <f t="shared" si="1"/>
         <v>2.21</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="2">
         <v>1649</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="2">
         <v>31</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="2">
         <f t="shared" si="3"/>
         <v>1.649</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>4129</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>14</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>4.1289999999999996</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>2205</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <v>36</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="2">
         <f t="shared" si="1"/>
         <v>2.2050000000000001</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="2">
         <v>2171</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="2">
         <v>29</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="2">
         <f t="shared" si="3"/>
         <v>2.1709999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>4294</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>13</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>4.2939999999999996</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <v>1965</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="2">
         <v>38</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="2">
         <f t="shared" si="1"/>
         <v>1.9650000000000001</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="2">
         <v>2702</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="2">
         <v>24</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="2">
         <f t="shared" si="3"/>
         <v>2.702</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>2395</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>22</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>2.395</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="2">
         <v>1965</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="2">
         <v>32</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="2">
         <f t="shared" si="1"/>
         <v>1.9650000000000001</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="2">
         <v>2155</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="2">
         <v>28</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="2">
         <f t="shared" si="3"/>
         <v>2.1549999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>4042</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>14</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>4.0419999999999998</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="2">
         <v>2930</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="2">
         <v>19</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="2">
         <f t="shared" si="3"/>
         <v>2.93</v>
       </c>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>4363</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>13</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <f t="shared" si="0"/>
         <v>4.3630000000000004</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="2">
         <v>2265</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="2">
         <v>26</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="2">
         <f t="shared" si="3"/>
         <v>2.2650000000000001</v>
       </c>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>3021</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>18</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <f t="shared" si="0"/>
         <v>3.0209999999999999</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="2">
         <v>2560</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="2">
         <v>27.5</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="2">
         <f t="shared" si="3"/>
         <v>2.56</v>
       </c>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>4906</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>12</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <f t="shared" si="0"/>
         <v>4.9059999999999997</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="2">
         <v>2515</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="2">
         <v>21.1</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="2">
         <f t="shared" si="3"/>
         <v>2.5150000000000001</v>
       </c>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>2310</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>19</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <f t="shared" si="0"/>
         <v>2.31</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="2">
         <v>1968</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="2">
         <v>38.1</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="2">
         <f t="shared" si="3"/>
         <v>1.968</v>
       </c>
     </row>
     <row r="21" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>2875</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>21</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <f t="shared" si="0"/>
         <v>2.875</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="2">
         <v>2711</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="2">
         <v>29.8</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="2">
         <f t="shared" si="3"/>
         <v>2.7109999999999999</v>
       </c>
     </row>
     <row r="22" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>2451</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>26</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <f t="shared" si="0"/>
         <v>2.4510000000000001</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="2">
         <v>2265</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="2">
         <v>32.200000000000003</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="2">
         <f t="shared" si="3"/>
         <v>2.2650000000000001</v>
       </c>
     </row>
     <row r="23" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>4141</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="2">
         <v>16</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <f t="shared" si="0"/>
         <v>4.141</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="2">
         <v>1755</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="2">
         <v>39.1</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="2">
         <f t="shared" si="3"/>
         <v>1.7549999999999999</v>
       </c>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <v>4638</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="2">
         <v>14</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <f t="shared" si="0"/>
         <v>4.6379999999999999</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="2">
         <v>2050</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="2">
         <v>37.700000000000003</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="2">
         <f t="shared" si="3"/>
         <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D25" s="4">
+      <c r="D25" s="2">
         <v>3158</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>15</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <f t="shared" si="0"/>
         <v>3.1579999999999999</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="2">
         <v>2350</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="2">
         <v>32.4</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="2">
         <f t="shared" si="3"/>
         <v>2.35</v>
       </c>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D26" s="4">
+      <c r="D26" s="2">
         <v>4657</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="2">
         <v>14</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <f t="shared" si="0"/>
         <v>4.657</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="2">
         <v>2900</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="2">
         <v>25.4</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26" s="2">
         <f t="shared" si="3"/>
         <v>2.9</v>
       </c>
     </row>
     <row r="27" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D27" s="4">
+      <c r="D27" s="2">
         <v>3169</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="2">
         <v>13</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="2">
         <f t="shared" si="0"/>
         <v>3.169</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="2">
         <v>2245</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="2">
         <v>34</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="2">
         <f t="shared" si="3"/>
         <v>2.2450000000000001</v>
       </c>
     </row>
     <row r="28" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D28" s="4">
+      <c r="D28" s="2">
         <v>2639</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="2">
         <v>23</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="2">
         <f t="shared" si="0"/>
         <v>2.6389999999999998</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="2">
         <v>2665</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="2">
         <v>32</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="2">
         <f t="shared" si="3"/>
         <v>2.665</v>
       </c>
     </row>
     <row r="29" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D29" s="4">
+      <c r="D29" s="2">
         <v>2984</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="2">
         <v>18</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="2">
         <f t="shared" si="0"/>
         <v>2.984</v>
       </c>
     </row>
     <row r="30" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D30" s="4">
+      <c r="D30" s="2">
         <v>4215</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="2">
         <v>14.5</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="2">
         <f t="shared" si="0"/>
         <v>4.2149999999999999</v>
       </c>
     </row>
     <row r="31" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D31" s="4">
+      <c r="D31" s="2">
         <v>3012</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="2">
         <v>24</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="2">
         <f t="shared" si="0"/>
         <v>3.012</v>
       </c>
     </row>
     <row r="32" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D32" s="4">
+      <c r="D32" s="2">
         <v>3574</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="2">
         <v>18</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="2">
         <f t="shared" si="0"/>
         <v>3.5739999999999998</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D33" s="4">
+      <c r="D33" s="2">
         <v>2565</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="2">
         <v>26.5</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="2">
         <f t="shared" si="0"/>
         <v>2.5649999999999999</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D34" s="4">
+      <c r="D34" s="2">
         <v>3870</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="2">
         <v>13</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="2">
         <f t="shared" si="0"/>
         <v>3.87</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D35" s="4">
+      <c r="D35" s="2">
         <v>3525</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="2">
         <v>18.5</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="2">
         <f t="shared" si="0"/>
         <v>3.5249999999999999</v>
       </c>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D36" s="4">
+      <c r="D36" s="2">
         <v>4335</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="2">
         <v>16</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="2">
         <f t="shared" si="0"/>
         <v>4.335</v>
       </c>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D37" s="4">
+      <c r="D37" s="2">
         <v>2755</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="2">
         <v>25.5</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="2">
         <f t="shared" si="0"/>
         <v>2.7549999999999999</v>
       </c>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D38" s="4">
+      <c r="D38" s="2">
         <v>1800</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="2">
         <v>36.1</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="2">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D39" s="4">
+      <c r="D39" s="2">
         <v>2965</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="2">
         <v>20.2</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="2">
         <f t="shared" si="0"/>
         <v>2.9649999999999999</v>
       </c>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D40" s="4">
+      <c r="D40" s="2">
         <v>2720</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="2">
         <v>25.1</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="2">
         <f t="shared" si="0"/>
         <v>2.72</v>
       </c>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D41" s="4">
+      <c r="D41" s="2">
         <v>3205</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="2">
         <v>18.100000000000001</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="2">
         <f t="shared" si="0"/>
         <v>3.2050000000000001</v>
       </c>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D42" s="4">
+      <c r="D42" s="2">
         <v>2890</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="2">
         <v>22.3</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="2">
         <f t="shared" si="0"/>
         <v>2.89</v>
       </c>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D43" s="4">
+      <c r="D43" s="2">
         <v>3725</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="2">
         <v>17.600000000000001</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="2">
         <f t="shared" si="0"/>
         <v>3.7250000000000001</v>
       </c>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D44" s="4">
+      <c r="D44" s="2">
         <v>4054</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="2">
         <v>15.5</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="2">
         <f t="shared" si="0"/>
         <v>4.0540000000000003</v>
       </c>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D45" s="4">
+      <c r="D45" s="2">
         <v>2870</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="2">
         <v>26.4</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="2">
         <f t="shared" si="0"/>
         <v>2.87</v>
       </c>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D46" s="4">
+      <c r="D46" s="2">
         <v>2905</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="2">
         <v>23.6</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="2">
         <f t="shared" si="0"/>
         <v>2.9049999999999998</v>
       </c>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D47" s="4">
+      <c r="D47" s="2">
         <v>2045</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="2">
         <v>34.4</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="2">
         <f t="shared" si="0"/>
         <v>2.0449999999999999</v>
       </c>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D48" s="4">
+      <c r="D48" s="2">
         <v>2380</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="2">
         <v>29.9</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="2">
         <f t="shared" si="0"/>
         <v>2.38</v>
       </c>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D49" s="4">
+      <c r="D49" s="2">
         <v>3060</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="2">
         <v>20.2</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="2">
         <f t="shared" si="0"/>
         <v>3.06</v>
       </c>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D50" s="4">
+      <c r="D50" s="2">
         <v>2865</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="2">
         <v>24</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="2">
         <f t="shared" si="0"/>
         <v>2.8650000000000002</v>
       </c>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D51" s="4">
+      <c r="D51" s="2">
         <v>2835</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="2">
         <v>22</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="2">
         <f t="shared" si="0"/>
         <v>2.835</v>
       </c>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D52" s="4">
+      <c r="D52" s="2">
         <v>2790</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="2">
         <v>27</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="2">
         <f t="shared" si="0"/>
         <v>2.79</v>
       </c>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D53" s="4">
+      <c r="D53" s="2">
         <v>2625</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="2">
         <v>28</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="2">
         <f t="shared" si="0"/>
         <v>2.625</v>
       </c>
